--- a/ESII - TP.xlsx
+++ b/ESII - TP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunof\Desktop\Universidade\PAW\ES2II---TP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB3C1FA6-1F0C-4E76-9157-866005BF38E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7023D26D-395F-400A-8218-5604B91D9777}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
   <si>
     <t>Critério</t>
   </si>
@@ -74,40 +74,235 @@
     <t>Casos de Teste</t>
   </si>
   <si>
-    <t xml:space="preserve">IDUser=1, IDDeposit=1, sarttime=1    </t>
-  </si>
-  <si>
     <t>IDDeposit=1, starttime=1</t>
   </si>
   <si>
-    <t xml:space="preserve">IDUser="x", IDDeposit=1, sarttime=1    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDUser=1, IDDeposit="x", sarttime=1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDUser=1, IDDeposit=1, sarttime="x"    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDUser=0, IDDeposit=1, sarttime=1    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDUser=1, IDDeposit=0, sarttime=1    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDUser=1, IDDeposit=1, sarttime=-1    </t>
-  </si>
-  <si>
     <t>returnBicycle</t>
   </si>
   <si>
-    <t>3, d</t>
+    <t xml:space="preserve">IDUser=1, IDDeposit=1, starttime=1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDUser="x", IDDeposit=1, starttime=1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDUser=1, IDDeposit="x", starttime=1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDUser=1, IDDeposit=1, starttime="x"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDUser=0, IDDeposit=1, starttime=1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDUser=1, IDDeposit=0, starttime=1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDUser=1, IDDeposit=1, starttime=-1    </t>
+  </si>
+  <si>
+    <t>&lt;=0, &gt;3</t>
+  </si>
+  <si>
+    <t>IDUser - int, IDDeposit - int, endtime - int</t>
+  </si>
+  <si>
+    <t>IDUser ≠ int, IDDeposit ≠ int, endtime ≠ int</t>
+  </si>
+  <si>
+    <t>IDUser &gt;= 0, IDDeposit &gt; 0, endtime &gt;= 0</t>
+  </si>
+  <si>
+    <t>IDUser &lt; 0, IDDeposit &lt;= 0, endtime &lt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDUser=1, IDDeposit=1, endtime=1    </t>
+  </si>
+  <si>
+    <t>IDDeposit=1, endtime=1</t>
+  </si>
+  <si>
+    <t>IDUser =1  2, IDDeposit=1, endtime=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDUser="x", IDDeposit=1,endtime=1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDUser=1, IDDeposit="x", endtime=1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDUser=1, IDDeposit=1, endtime="x"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDUser=-1, IDDeposit=1, endtime=1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDUser=1, IDDeposit=0, endtime=1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDUser=1, IDDeposit=1, endtime=-1    </t>
+  </si>
+  <si>
+    <t>bicycleRentalFee</t>
+  </si>
+  <si>
+    <t>&lt;=0, &gt;4</t>
+  </si>
+  <si>
+    <t>rentalProgram - int, starttime - int, endtime - int, nRentals - int</t>
+  </si>
+  <si>
+    <t>rentalProgram ≠ int, starttime ≠ int, endtime ≠ int, nRentals ≠ int</t>
+  </si>
+  <si>
+    <t>rentalProgram &gt;=0, starttime&gt;= 0, endtime &gt;= 0, startTime&lt;=endtime, nRentals &gt;=0</t>
+  </si>
+  <si>
+    <t>rentalProgram &lt; 0, starttime &lt; 0, endtime &lt; 0, startTime &gt; endtime, nRentals &lt; 0</t>
+  </si>
+  <si>
+    <t>rentalProgram=1, starttime=0, endtime=1, nRentals=1</t>
+  </si>
+  <si>
+    <t>rentalProgram=1  2, starttime=0, endtime=1, nRentals=1</t>
+  </si>
+  <si>
+    <t>rentalProgram="x" , starttime=0, endtime=1, nRentals=1</t>
+  </si>
+  <si>
+    <t>rentalProgram=1 , starttime="x", endtime=1, nRentals=1</t>
+  </si>
+  <si>
+    <t>rentalProgram=1 , starttime=0, endtime="x", nRentals=1</t>
+  </si>
+  <si>
+    <t>rentalProgram=1 , starttime=0, endtime=1 , nRentals="x"</t>
+  </si>
+  <si>
+    <t>rentalProgram=-1 , starttime=0, endtime=1 , nRentals=1</t>
+  </si>
+  <si>
+    <t>rentalProgram=1 , starttime=-1, endtime=1 , nRentals=1</t>
+  </si>
+  <si>
+    <t>rentalProgram=1 , starttime=0, endtime=-1 , nRentals=1</t>
+  </si>
+  <si>
+    <t>rentalProgram=1 , starttime=2, endtime=1 , nRentals=1</t>
+  </si>
+  <si>
+    <t>rentalProgram=1 , starttime=0, endtime=1 , nRentals=-1</t>
+  </si>
+  <si>
+    <t>verifyCredit</t>
+  </si>
+  <si>
+    <t>0, &gt;1</t>
+  </si>
+  <si>
+    <t>IDUser - int</t>
+  </si>
+  <si>
+    <t>IDUser ≠ int</t>
+  </si>
+  <si>
+    <t>IDUser &gt;= 0</t>
+  </si>
+  <si>
+    <t>IDUser &lt; 0</t>
+  </si>
+  <si>
+    <t>IDUser=1</t>
+  </si>
+  <si>
+    <t>IDUser=1 2</t>
+  </si>
+  <si>
+    <t>IDUser="x"</t>
+  </si>
+  <si>
+    <t>IDUser=-1</t>
+  </si>
+  <si>
+    <t>addCredit</t>
+  </si>
+  <si>
+    <t>≠2</t>
+  </si>
+  <si>
+    <t>IDUser - int, amount - int</t>
+  </si>
+  <si>
+    <t>IDUser ≠ int, amount ≠ int</t>
+  </si>
+  <si>
+    <t>IDUser &gt;= 0, amount &gt; 0</t>
+  </si>
+  <si>
+    <t>IDUser &lt; 0, amount &lt;=0</t>
+  </si>
+  <si>
+    <t>IDUser=1, amount=1</t>
+  </si>
+  <si>
+    <t>IDUser="x", amount=1</t>
+  </si>
+  <si>
+    <t>IDUser=1, amount="x"</t>
+  </si>
+  <si>
+    <t>IDUser=-1, amount=1</t>
+  </si>
+  <si>
+    <t>IDUser=1, amount=-1</t>
+  </si>
+  <si>
+    <t>registerUser</t>
+  </si>
+  <si>
+    <t>IDUser - int, name - string, rentalProgram - int</t>
+  </si>
+  <si>
+    <t>IDUser ≠ int, name = null, rentalProgram ≠ int</t>
+  </si>
+  <si>
+    <t>IDUser &gt;= 0, name ≠ null, rentalProgram = 1 ou 2</t>
+  </si>
+  <si>
+    <t>IDUser &lt; 0, rentalProgram ≠ 1 ou 2</t>
+  </si>
+  <si>
+    <t>IDUser=1, name="jose", rentalProgram=1</t>
+  </si>
+  <si>
+    <t>IDUser=1, rentalProgram=1</t>
+  </si>
+  <si>
+    <t>IDUser =1 , name="jose", rentalProgram=1  2</t>
+  </si>
+  <si>
+    <t>IDUser ="x" , name="jose", rentalProgram=1</t>
+  </si>
+  <si>
+    <t>IDUser =1 , name=, rentalProgram=1  2</t>
+  </si>
+  <si>
+    <t>IDUser =1 , name="jose", rentalProgram="x"</t>
+  </si>
+  <si>
+    <t>IDUser =-1 , name="jose", rentalProgram=1</t>
+  </si>
+  <si>
+    <t>IDUser =1 , name="jose", rentalProgram=3</t>
+  </si>
+  <si>
+    <t>IDUser=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,10 +455,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,21 +838,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.44140625" customWidth="1"/>
-    <col min="3" max="3" width="45.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
@@ -666,18 +861,18 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -688,7 +883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -699,7 +894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -710,72 +905,72 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="15"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
@@ -786,75 +981,545 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="5">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
+      <c r="B21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C31" s="15"/>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="15"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="5">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="17"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="15"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="15"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="17"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="13"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="13"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="14"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="15"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="5">
+        <v>2</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="17"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="13"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="14"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="14"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="15"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="15"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="5">
+        <v>3</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="17"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="13"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="13"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="14"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="14"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="14"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="15"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ESII - TP.xlsx
+++ b/ESII - TP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunof\Desktop\Universidade\PAW\ES2II---TP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7023D26D-395F-400A-8218-5604B91D9777}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96F2135-61E8-4D7F-96C5-C572A96FD01C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,13 +456,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -841,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
@@ -853,13 +853,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -906,10 +906,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -962,13 +962,13 @@
       <c r="C15" s="15"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
@@ -1015,10 +1015,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
@@ -1077,13 +1077,13 @@
       <c r="C32" s="15"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
@@ -1130,10 +1130,10 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
@@ -1210,13 +1210,13 @@
       <c r="C52" s="15"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
@@ -1263,10 +1263,10 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="17"/>
+      <c r="C60" s="18"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
@@ -1301,13 +1301,13 @@
       <c r="C65" s="15"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
@@ -1354,10 +1354,10 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="17"/>
+      <c r="C73" s="18"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
@@ -1398,13 +1398,13 @@
       <c r="C79" s="15"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
@@ -1451,10 +1451,10 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="18"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
@@ -1508,6 +1508,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A34:E34"/>
     <mergeCell ref="A81:E81"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="B40:C40"/>
@@ -1515,11 +1520,6 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="A67:E67"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ESII - TP.xlsx
+++ b/ESII - TP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunof\Desktop\Universidade\PAW\ES2II---TP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96F2135-61E8-4D7F-96C5-C572A96FD01C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C449E475-653D-43F7-A478-BC1A27E8B364}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t xml:space="preserve">IDUser="x", IDDeposit=1, starttime=1    </t>
   </si>
   <si>
-    <t xml:space="preserve">IDUser=1, IDDeposit="x", starttime=1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IDUser=1, IDDeposit=1, starttime="x"    </t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>IDUser=</t>
+  </si>
+  <si>
+    <t>IDUser=1, IDDeposit="x", starttime=1</t>
   </si>
 </sst>
 </file>
@@ -456,13 +456,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,13 +853,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -906,10 +906,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -933,42 +933,42 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="15"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
@@ -989,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -997,10 +997,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1008,21 +1008,21 @@
         <v>5</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
@@ -1030,60 +1030,60 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="15"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="15"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="15"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="15"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
@@ -1104,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,10 +1112,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1123,21 +1123,21 @@
         <v>5</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="18"/>
+      <c r="C40" s="17"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
@@ -1145,78 +1145,78 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="13"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="14"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="14"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="15"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="15"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="15"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="15"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="15"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="15"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1245,10 +1245,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1256,21 +1256,21 @@
         <v>5</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="18"/>
+      <c r="C60" s="17"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="12"/>
@@ -1278,36 +1278,36 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="13"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="14"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="15"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="15"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
@@ -1328,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1336,10 +1336,10 @@
         <v>4</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1347,21 +1347,21 @@
         <v>5</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="18"/>
+      <c r="C73" s="17"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="12"/>
@@ -1369,42 +1369,42 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C75" s="13"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78" s="15"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="15"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="15"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1433,10 +1433,10 @@
         <v>4</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1444,21 +1444,21 @@
         <v>5</v>
       </c>
       <c r="B85" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="18"/>
+      <c r="C87" s="17"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="12"/>
@@ -1466,53 +1466,48 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C89" s="13"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C90" s="13"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C93" s="14"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C94" s="15"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C95" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A34:E34"/>
     <mergeCell ref="A81:E81"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="B40:C40"/>
@@ -1520,6 +1515,11 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="A67:E67"/>
     <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ESII - TP.xlsx
+++ b/ESII - TP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunof\Desktop\Universidade\PAW\ES2II---TP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C449E475-653D-43F7-A478-BC1A27E8B364}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D09ADB-25A2-4FA9-BB79-D93584A10A5C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
   <si>
     <t>Critério</t>
   </si>
@@ -59,12 +59,6 @@
     <t>IDUser ≠ int, IDDeposit ≠ int, starttime ≠ int</t>
   </si>
   <si>
-    <t>≠3, IDUser = null</t>
-  </si>
-  <si>
-    <t>3, IDUser ≠ null</t>
-  </si>
-  <si>
     <t>IDUser &gt; 0, IDDeposit &gt; 0, starttime &gt;= 0</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>Casos de Teste</t>
   </si>
   <si>
-    <t>IDDeposit=1, starttime=1</t>
-  </si>
-  <si>
     <t>returnBicycle</t>
   </si>
   <si>
@@ -297,13 +288,19 @@
   </si>
   <si>
     <t>IDUser=1, IDDeposit="x", starttime=1</t>
+  </si>
+  <si>
+    <t>≠3</t>
+  </si>
+  <si>
+    <t>IDUser=1 2, IDDeposit=1, starttime=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,14 +308,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,12 +360,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -422,29 +407,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -452,17 +484,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -471,6 +533,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3C87CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -842,684 +909,894 @@
   <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.140625" customWidth="1"/>
     <col min="3" max="3" width="59.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="14"/>
+        <v>85</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="19" t="s">
         <v>2</v>
       </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>3</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="17"/>
+      <c r="B23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="15"/>
+        <v>30</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="15"/>
+        <v>32</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="A34" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="19" t="s">
         <v>2</v>
       </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>4</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="C36" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="B37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="B38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="17"/>
+      <c r="B40" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="18"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="18"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="18"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="18"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
+      <c r="A54" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="23"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="19" t="s">
         <v>2</v>
       </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>1</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="C56" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="B57" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="B58" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="18"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="17"/>
+      <c r="B60" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="18"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
+      <c r="A67" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="23"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="19" t="s">
         <v>2</v>
       </c>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="4">
         <v>2</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="C69" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="B70" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="14"/>
+      <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="B71" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="18"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="17"/>
+      <c r="B73" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C75" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" s="14"/>
+        <v>67</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="15"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C77" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="C78" s="16"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="18"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="C79" s="16"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="18"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
+      <c r="A81" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="23"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="19" t="s">
         <v>2</v>
       </c>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="4">
         <v>3</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C83" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>76</v>
-      </c>
+      <c r="B84" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="14"/>
+      <c r="E84" s="15"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="B85" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" s="17"/>
+      <c r="E85" s="18"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="17"/>
+      <c r="B87" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C89" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="12"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="15"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" s="14"/>
+        <v>80</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="15"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C93" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C94" s="15"/>
+        <v>82</v>
+      </c>
+      <c r="C94" s="16"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="18"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C95" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="C95" s="16"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B23:C23"/>
+  <mergeCells count="78">
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A34:E34"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B73:E73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ESII - TP.xlsx
+++ b/ESII - TP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunof\Desktop\Universidade\PAW\ES2II---TP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D09ADB-25A2-4FA9-BB79-D93584A10A5C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C63C41-FC30-4FEE-A387-2FCD27A60CE4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>Critério</t>
   </si>
@@ -89,9 +89,6 @@
     <t xml:space="preserve">IDUser=1, IDDeposit=1, starttime=-1    </t>
   </si>
   <si>
-    <t>&lt;=0, &gt;3</t>
-  </si>
-  <si>
     <t>IDUser - int, IDDeposit - int, endtime - int</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t xml:space="preserve">IDUser=1, IDDeposit=1, endtime=1    </t>
   </si>
   <si>
-    <t>IDDeposit=1, endtime=1</t>
-  </si>
-  <si>
     <t>IDUser =1  2, IDDeposit=1, endtime=1</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>bicycleRentalFee</t>
   </si>
   <si>
-    <t>&lt;=0, &gt;4</t>
-  </si>
-  <si>
     <t>rentalProgram - int, starttime - int, endtime - int, nRentals - int</t>
   </si>
   <si>
@@ -263,9 +254,6 @@
     <t>IDUser=1, name="jose", rentalProgram=1</t>
   </si>
   <si>
-    <t>IDUser=1, rentalProgram=1</t>
-  </si>
-  <si>
     <t>IDUser =1 , name="jose", rentalProgram=1  2</t>
   </si>
   <si>
@@ -294,6 +282,27 @@
   </si>
   <si>
     <t>IDUser=1 2, IDDeposit=1, starttime=1</t>
+  </si>
+  <si>
+    <t>≠4</t>
+  </si>
+  <si>
+    <t>IDUser=1,name=, rentalProgram=1</t>
+  </si>
+  <si>
+    <t>IDUser=1 2, amount=1</t>
+  </si>
+  <si>
+    <t>IDUser=1, amount=</t>
+  </si>
+  <si>
+    <t>IDDeposit=1,starttime=, endtime=1, nRentals=1</t>
+  </si>
+  <si>
+    <t>IDDeposit=1,IDDeposit=, endtime=1</t>
+  </si>
+  <si>
+    <t>IDUser=, IDDeposit=1, starttime=1</t>
   </si>
 </sst>
 </file>
@@ -468,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -510,6 +519,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,13 +971,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -935,11 +986,11 @@
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -948,11 +999,11 @@
       <c r="B3" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -961,11 +1012,11 @@
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -974,19 +1025,19 @@
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -998,31 +1049,31 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
@@ -1030,15 +1081,15 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
@@ -1046,100 +1097,100 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="4">
-        <v>3</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
@@ -1147,15 +1198,15 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
@@ -1163,7 +1214,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
@@ -1171,15 +1222,15 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
@@ -1187,100 +1238,100 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="17"/>
       <c r="E32" s="18"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4">
-        <v>4</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="4">
         <v>4</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
+      <c r="C37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="19" t="s">
+      <c r="B39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="1"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="11"/>
@@ -1288,15 +1339,15 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
@@ -1304,7 +1355,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
@@ -1312,7 +1363,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
@@ -1320,15 +1371,15 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
@@ -1336,7 +1387,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
@@ -1344,7 +1395,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="17"/>
@@ -1352,100 +1403,100 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="17"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="23"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="18"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B56" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C56" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="4">
-        <v>1</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="18"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="19" t="s">
+      <c r="B59" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="18"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="1"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="11"/>
@@ -1453,249 +1504,249 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="18"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="18"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B69" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C69" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="4">
-        <v>2</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="12"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="B70" s="4">
+        <v>2</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="14"/>
+      <c r="E71" s="15"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="18"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="19" t="s">
+      <c r="B72" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="18"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="1"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="12"/>
+        <v>63</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="15"/>
+        <v>87</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="15"/>
+        <v>86</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="18"/>
+        <v>65</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="15"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="18"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="23"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
+      <c r="B81" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="18"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="23"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B84" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C84" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="4">
-        <v>3</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="12"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="4">
+        <v>3</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" s="14"/>
+      <c r="E86" s="15"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="18"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="17"/>
+      <c r="E87" s="18"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="12"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="12"/>
+        <v>73</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="15"/>
+        <v>85</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="12"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="15"/>
+        <v>74</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="12"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="14"/>
@@ -1703,100 +1754,48 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="18"/>
+        <v>76</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="18"/>
+        <v>77</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C96" s="16"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="18"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C97" s="16"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B23:E23"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B73:E73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ESII - TP.xlsx
+++ b/ESII - TP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunof\Desktop\Universidade\PAW\ES2II---TP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C63C41-FC30-4FEE-A387-2FCD27A60CE4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B8A448-3C73-4B0C-A67E-D7EE719F3843}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -554,6 +554,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -563,19 +572,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -959,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,13 +989,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -986,11 +1004,11 @@
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -999,11 +1017,11 @@
       <c r="B3" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1012,11 +1030,11 @@
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1025,19 +1043,19 @@
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -1051,25 +1069,25 @@
       <c r="B9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -1112,13 +1130,13 @@
       <c r="E16" s="18"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -1153,11 +1171,11 @@
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1294,11 +1312,11 @@
       <c r="B38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -1307,11 +1325,11 @@
       <c r="B39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="19" t="s">
